--- a/KEGG/kegg_counts.xlsx
+++ b/KEGG/kegg_counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Squirrel_MetaG\KEGG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FBD87BB-1C11-494D-AAF6-DA4044D8B68C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DF8FB1-64CE-453E-A05F-19E94340D180}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{0B622ED4-1555-4BF9-B98B-578A2E819430}"/>
   </bookViews>
@@ -27,643 +27,643 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="213">
   <si>
-    <t>00010</t>
-  </si>
-  <si>
-    <t>00020</t>
-  </si>
-  <si>
-    <t>00030</t>
-  </si>
-  <si>
-    <t>00040</t>
-  </si>
-  <si>
-    <t>00051</t>
-  </si>
-  <si>
-    <t>00052</t>
-  </si>
-  <si>
-    <t>00053</t>
-  </si>
-  <si>
-    <t>00500</t>
-  </si>
-  <si>
-    <t>00520</t>
-  </si>
-  <si>
-    <t>00620</t>
-  </si>
-  <si>
-    <t>00630</t>
-  </si>
-  <si>
-    <t>00640</t>
-  </si>
-  <si>
-    <t>00650</t>
-  </si>
-  <si>
-    <t>00660</t>
-  </si>
-  <si>
-    <t>00562</t>
-  </si>
-  <si>
-    <t>00190</t>
-  </si>
-  <si>
-    <t>00195</t>
-  </si>
-  <si>
-    <t>00710</t>
-  </si>
-  <si>
-    <t>00720</t>
-  </si>
-  <si>
-    <t>00680</t>
-  </si>
-  <si>
-    <t>00910</t>
-  </si>
-  <si>
-    <t>00920</t>
-  </si>
-  <si>
-    <t>00061</t>
-  </si>
-  <si>
-    <t>00062</t>
-  </si>
-  <si>
-    <t>00071</t>
-  </si>
-  <si>
-    <t>00072</t>
-  </si>
-  <si>
-    <t>00120</t>
-  </si>
-  <si>
-    <t>00121</t>
-  </si>
-  <si>
-    <t>00140</t>
-  </si>
-  <si>
-    <t>00561</t>
-  </si>
-  <si>
-    <t>00564</t>
-  </si>
-  <si>
-    <t>00565</t>
-  </si>
-  <si>
-    <t>00600</t>
-  </si>
-  <si>
-    <t>00590</t>
-  </si>
-  <si>
-    <t>00591</t>
-  </si>
-  <si>
-    <t>00592</t>
-  </si>
-  <si>
-    <t>01040</t>
-  </si>
-  <si>
-    <t>00230</t>
-  </si>
-  <si>
-    <t>00240</t>
-  </si>
-  <si>
-    <t>00250</t>
-  </si>
-  <si>
-    <t>00260</t>
-  </si>
-  <si>
-    <t>00270</t>
-  </si>
-  <si>
-    <t>00280</t>
-  </si>
-  <si>
-    <t>00290</t>
-  </si>
-  <si>
-    <t>00300</t>
-  </si>
-  <si>
-    <t>00310</t>
-  </si>
-  <si>
-    <t>00220</t>
-  </si>
-  <si>
-    <t>00330</t>
-  </si>
-  <si>
-    <t>00340</t>
-  </si>
-  <si>
-    <t>00350</t>
-  </si>
-  <si>
-    <t>00360</t>
-  </si>
-  <si>
-    <t>00380</t>
-  </si>
-  <si>
-    <t>00400</t>
-  </si>
-  <si>
-    <t>00410</t>
-  </si>
-  <si>
-    <t>00430</t>
-  </si>
-  <si>
-    <t>00440</t>
-  </si>
-  <si>
-    <t>00450</t>
-  </si>
-  <si>
-    <t>00460</t>
-  </si>
-  <si>
-    <t>00471</t>
-  </si>
-  <si>
-    <t>00472</t>
-  </si>
-  <si>
-    <t>00473</t>
-  </si>
-  <si>
-    <t>00480</t>
-  </si>
-  <si>
-    <t>00510</t>
-  </si>
-  <si>
-    <t>00513</t>
-  </si>
-  <si>
-    <t>00512</t>
-  </si>
-  <si>
-    <t>00514</t>
-  </si>
-  <si>
-    <t>00531</t>
-  </si>
-  <si>
-    <t>00563</t>
-  </si>
-  <si>
-    <t>00601</t>
-  </si>
-  <si>
-    <t>00603</t>
-  </si>
-  <si>
-    <t>00604</t>
-  </si>
-  <si>
-    <t>00540</t>
-  </si>
-  <si>
-    <t>00550</t>
-  </si>
-  <si>
-    <t>00511</t>
-  </si>
-  <si>
-    <t>00730</t>
-  </si>
-  <si>
-    <t>00740</t>
-  </si>
-  <si>
-    <t>00750</t>
-  </si>
-  <si>
-    <t>00760</t>
-  </si>
-  <si>
-    <t>00770</t>
-  </si>
-  <si>
-    <t>00780</t>
-  </si>
-  <si>
-    <t>00785</t>
-  </si>
-  <si>
-    <t>00790</t>
-  </si>
-  <si>
-    <t>00670</t>
-  </si>
-  <si>
-    <t>00830</t>
-  </si>
-  <si>
-    <t>00860</t>
-  </si>
-  <si>
-    <t>00130</t>
-  </si>
-  <si>
-    <t>00900</t>
-  </si>
-  <si>
-    <t>00906</t>
-  </si>
-  <si>
-    <t>00905</t>
-  </si>
-  <si>
-    <t>00981</t>
-  </si>
-  <si>
-    <t>00908</t>
-  </si>
-  <si>
-    <t>00903</t>
-  </si>
-  <si>
-    <t>01051</t>
-  </si>
-  <si>
-    <t>00523</t>
-  </si>
-  <si>
-    <t>01054</t>
-  </si>
-  <si>
-    <t>01053</t>
-  </si>
-  <si>
-    <t>01055</t>
-  </si>
-  <si>
-    <t>00940</t>
-  </si>
-  <si>
-    <t>00945</t>
-  </si>
-  <si>
-    <t>00941</t>
-  </si>
-  <si>
-    <t>00944</t>
-  </si>
-  <si>
-    <t>00950</t>
-  </si>
-  <si>
-    <t>00960</t>
-  </si>
-  <si>
-    <t>00232</t>
-  </si>
-  <si>
-    <t>00966</t>
-  </si>
-  <si>
-    <t>00332</t>
-  </si>
-  <si>
-    <t>00261</t>
-  </si>
-  <si>
-    <t>00521</t>
-  </si>
-  <si>
-    <t>00524</t>
-  </si>
-  <si>
-    <t>00525</t>
-  </si>
-  <si>
-    <t>00401</t>
-  </si>
-  <si>
-    <t>00405</t>
-  </si>
-  <si>
-    <t>00333</t>
-  </si>
-  <si>
-    <t>00362</t>
-  </si>
-  <si>
-    <t>00627</t>
-  </si>
-  <si>
-    <t>00625</t>
-  </si>
-  <si>
-    <t>00361</t>
-  </si>
-  <si>
-    <t>00622</t>
-  </si>
-  <si>
-    <t>00633</t>
-  </si>
-  <si>
-    <t>00642</t>
-  </si>
-  <si>
-    <t>00791</t>
-  </si>
-  <si>
-    <t>00930</t>
-  </si>
-  <si>
-    <t>00621</t>
-  </si>
-  <si>
-    <t>00626</t>
-  </si>
-  <si>
-    <t>00984</t>
-  </si>
-  <si>
-    <t>00980</t>
-  </si>
-  <si>
-    <t>00982</t>
-  </si>
-  <si>
-    <t>00983</t>
-  </si>
-  <si>
-    <t>03020</t>
-  </si>
-  <si>
-    <t>03022</t>
-  </si>
-  <si>
-    <t>03040</t>
-  </si>
-  <si>
-    <t>03010</t>
-  </si>
-  <si>
-    <t>00970</t>
-  </si>
-  <si>
-    <t>03013</t>
-  </si>
-  <si>
-    <t>03015</t>
-  </si>
-  <si>
-    <t>03008</t>
-  </si>
-  <si>
-    <t>03030</t>
-  </si>
-  <si>
-    <t>03410</t>
-  </si>
-  <si>
-    <t>03420</t>
-  </si>
-  <si>
-    <t>03430</t>
-  </si>
-  <si>
-    <t>03440</t>
-  </si>
-  <si>
-    <t>03450</t>
-  </si>
-  <si>
-    <t>03460</t>
-  </si>
-  <si>
-    <t>02010</t>
-  </si>
-  <si>
-    <t>02060</t>
-  </si>
-  <si>
-    <t>03070</t>
-  </si>
-  <si>
-    <t>02020</t>
-  </si>
-  <si>
-    <t>04014</t>
-  </si>
-  <si>
-    <t>04015</t>
-  </si>
-  <si>
-    <t>04010</t>
-  </si>
-  <si>
-    <t>04011</t>
-  </si>
-  <si>
-    <t>04012</t>
-  </si>
-  <si>
-    <t>04310</t>
-  </si>
-  <si>
-    <t>04330</t>
-  </si>
-  <si>
-    <t>04340</t>
-  </si>
-  <si>
-    <t>04350</t>
-  </si>
-  <si>
-    <t>04390</t>
-  </si>
-  <si>
-    <t>04392</t>
-  </si>
-  <si>
-    <t>04370</t>
-  </si>
-  <si>
-    <t>04371</t>
-  </si>
-  <si>
-    <t>04630</t>
-  </si>
-  <si>
-    <t>04064</t>
-  </si>
-  <si>
-    <t>04668</t>
-  </si>
-  <si>
-    <t>04066</t>
-  </si>
-  <si>
-    <t>04068</t>
-  </si>
-  <si>
-    <t>04020</t>
-  </si>
-  <si>
-    <t>04070</t>
-  </si>
-  <si>
-    <t>04072</t>
-  </si>
-  <si>
-    <t>04071</t>
-  </si>
-  <si>
-    <t>04024</t>
-  </si>
-  <si>
-    <t>04022</t>
-  </si>
-  <si>
-    <t>04151</t>
-  </si>
-  <si>
-    <t>04152</t>
-  </si>
-  <si>
-    <t>04150</t>
-  </si>
-  <si>
-    <t>04080</t>
-  </si>
-  <si>
-    <t>04512</t>
-  </si>
-  <si>
-    <t>04144</t>
-  </si>
-  <si>
-    <t>04145</t>
-  </si>
-  <si>
-    <t>04142</t>
-  </si>
-  <si>
-    <t>04146</t>
-  </si>
-  <si>
-    <t>04138</t>
-  </si>
-  <si>
-    <t>04136</t>
-  </si>
-  <si>
-    <t>04139</t>
-  </si>
-  <si>
-    <t>04110</t>
-  </si>
-  <si>
-    <t>04111</t>
-  </si>
-  <si>
-    <t>04112</t>
-  </si>
-  <si>
-    <t>04113</t>
-  </si>
-  <si>
-    <t>04210</t>
-  </si>
-  <si>
-    <t>04216</t>
-  </si>
-  <si>
-    <t>02024</t>
-  </si>
-  <si>
-    <t>05111</t>
-  </si>
-  <si>
-    <t>02025</t>
-  </si>
-  <si>
-    <t>02026</t>
-  </si>
-  <si>
-    <t>02030</t>
-  </si>
-  <si>
-    <t>02040</t>
-  </si>
-  <si>
-    <t>04810</t>
-  </si>
-  <si>
-    <t>00100</t>
-  </si>
-  <si>
-    <t>00532</t>
-  </si>
-  <si>
-    <t>00534</t>
-  </si>
-  <si>
-    <t>00515</t>
-  </si>
-  <si>
-    <t>00311</t>
-  </si>
-  <si>
-    <t>00643</t>
-  </si>
-  <si>
-    <t>00909</t>
-  </si>
-  <si>
-    <t>00364</t>
-  </si>
-  <si>
-    <t>03060</t>
-  </si>
-  <si>
-    <t>04141</t>
-  </si>
-  <si>
-    <t>04120</t>
-  </si>
-  <si>
-    <t>04122</t>
-  </si>
-  <si>
-    <t>03050</t>
-  </si>
-  <si>
-    <t>03018</t>
-  </si>
-  <si>
-    <t>04130</t>
-  </si>
-  <si>
-    <t>04060</t>
-  </si>
-  <si>
-    <t>04514</t>
+    <t>ko00010</t>
+  </si>
+  <si>
+    <t>ko00020</t>
+  </si>
+  <si>
+    <t>ko00030</t>
+  </si>
+  <si>
+    <t>ko00040</t>
+  </si>
+  <si>
+    <t>ko00051</t>
+  </si>
+  <si>
+    <t>ko00052</t>
+  </si>
+  <si>
+    <t>ko00053</t>
+  </si>
+  <si>
+    <t>ko00500</t>
+  </si>
+  <si>
+    <t>ko00520</t>
+  </si>
+  <si>
+    <t>ko00620</t>
+  </si>
+  <si>
+    <t>ko00630</t>
+  </si>
+  <si>
+    <t>ko00640</t>
+  </si>
+  <si>
+    <t>ko00650</t>
+  </si>
+  <si>
+    <t>ko00660</t>
+  </si>
+  <si>
+    <t>ko00562</t>
+  </si>
+  <si>
+    <t>ko00190</t>
+  </si>
+  <si>
+    <t>ko00195</t>
+  </si>
+  <si>
+    <t>ko00710</t>
+  </si>
+  <si>
+    <t>ko00720</t>
+  </si>
+  <si>
+    <t>ko00680</t>
+  </si>
+  <si>
+    <t>ko00910</t>
+  </si>
+  <si>
+    <t>ko00920</t>
+  </si>
+  <si>
+    <t>ko00061</t>
+  </si>
+  <si>
+    <t>ko00062</t>
+  </si>
+  <si>
+    <t>ko00071</t>
+  </si>
+  <si>
+    <t>ko00072</t>
+  </si>
+  <si>
+    <t>ko00100</t>
+  </si>
+  <si>
+    <t>ko00120</t>
+  </si>
+  <si>
+    <t>ko00121</t>
+  </si>
+  <si>
+    <t>ko00140</t>
+  </si>
+  <si>
+    <t>ko00561</t>
+  </si>
+  <si>
+    <t>ko00564</t>
+  </si>
+  <si>
+    <t>ko00565</t>
+  </si>
+  <si>
+    <t>ko00600</t>
+  </si>
+  <si>
+    <t>ko00590</t>
+  </si>
+  <si>
+    <t>ko00591</t>
+  </si>
+  <si>
+    <t>ko00592</t>
+  </si>
+  <si>
+    <t>ko01040</t>
+  </si>
+  <si>
+    <t>ko00230</t>
+  </si>
+  <si>
+    <t>ko00240</t>
+  </si>
+  <si>
+    <t>ko00250</t>
+  </si>
+  <si>
+    <t>ko00260</t>
+  </si>
+  <si>
+    <t>ko00270</t>
+  </si>
+  <si>
+    <t>ko00280</t>
+  </si>
+  <si>
+    <t>ko00290</t>
+  </si>
+  <si>
+    <t>ko00300</t>
+  </si>
+  <si>
+    <t>ko00310</t>
+  </si>
+  <si>
+    <t>ko00220</t>
+  </si>
+  <si>
+    <t>ko00330</t>
+  </si>
+  <si>
+    <t>ko00340</t>
+  </si>
+  <si>
+    <t>ko00350</t>
+  </si>
+  <si>
+    <t>ko00360</t>
+  </si>
+  <si>
+    <t>ko00380</t>
+  </si>
+  <si>
+    <t>ko00400</t>
+  </si>
+  <si>
+    <t>ko00410</t>
+  </si>
+  <si>
+    <t>ko00430</t>
+  </si>
+  <si>
+    <t>ko00440</t>
+  </si>
+  <si>
+    <t>ko00450</t>
+  </si>
+  <si>
+    <t>ko00460</t>
+  </si>
+  <si>
+    <t>ko00471</t>
+  </si>
+  <si>
+    <t>ko00472</t>
+  </si>
+  <si>
+    <t>ko00473</t>
+  </si>
+  <si>
+    <t>ko00480</t>
+  </si>
+  <si>
+    <t>ko00510</t>
+  </si>
+  <si>
+    <t>ko00513</t>
+  </si>
+  <si>
+    <t>ko00512</t>
+  </si>
+  <si>
+    <t>ko00515</t>
+  </si>
+  <si>
+    <t>ko00514</t>
+  </si>
+  <si>
+    <t>ko00532</t>
+  </si>
+  <si>
+    <t>ko00534</t>
+  </si>
+  <si>
+    <t>ko00531</t>
+  </si>
+  <si>
+    <t>ko00601</t>
+  </si>
+  <si>
+    <t>ko00563</t>
+  </si>
+  <si>
+    <t>ko00603</t>
+  </si>
+  <si>
+    <t>ko00604</t>
+  </si>
+  <si>
+    <t>ko00540</t>
+  </si>
+  <si>
+    <t>ko00550</t>
+  </si>
+  <si>
+    <t>ko00511</t>
+  </si>
+  <si>
+    <t>ko00730</t>
+  </si>
+  <si>
+    <t>ko00740</t>
+  </si>
+  <si>
+    <t>ko00750</t>
+  </si>
+  <si>
+    <t>ko00760</t>
+  </si>
+  <si>
+    <t>ko00770</t>
+  </si>
+  <si>
+    <t>ko00780</t>
+  </si>
+  <si>
+    <t>ko00785</t>
+  </si>
+  <si>
+    <t>ko00790</t>
+  </si>
+  <si>
+    <t>ko00670</t>
+  </si>
+  <si>
+    <t>ko00830</t>
+  </si>
+  <si>
+    <t>ko00860</t>
+  </si>
+  <si>
+    <t>ko00130</t>
+  </si>
+  <si>
+    <t>ko00900</t>
+  </si>
+  <si>
+    <t>ko00909</t>
+  </si>
+  <si>
+    <t>ko00906</t>
+  </si>
+  <si>
+    <t>ko00905</t>
+  </si>
+  <si>
+    <t>ko00981</t>
+  </si>
+  <si>
+    <t>ko00908</t>
+  </si>
+  <si>
+    <t>ko00903</t>
+  </si>
+  <si>
+    <t>ko01051</t>
+  </si>
+  <si>
+    <t>ko00523</t>
+  </si>
+  <si>
+    <t>ko01054</t>
+  </si>
+  <si>
+    <t>ko01053</t>
+  </si>
+  <si>
+    <t>ko01055</t>
+  </si>
+  <si>
+    <t>ko00940</t>
+  </si>
+  <si>
+    <t>ko00945</t>
+  </si>
+  <si>
+    <t>ko00941</t>
+  </si>
+  <si>
+    <t>ko00944</t>
+  </si>
+  <si>
+    <t>ko00950</t>
+  </si>
+  <si>
+    <t>ko00960</t>
+  </si>
+  <si>
+    <t>ko00232</t>
+  </si>
+  <si>
+    <t>ko00966</t>
+  </si>
+  <si>
+    <t>ko00311</t>
+  </si>
+  <si>
+    <t>ko00332</t>
+  </si>
+  <si>
+    <t>ko00261</t>
+  </si>
+  <si>
+    <t>ko00521</t>
+  </si>
+  <si>
+    <t>ko00524</t>
+  </si>
+  <si>
+    <t>ko00525</t>
+  </si>
+  <si>
+    <t>ko00401</t>
+  </si>
+  <si>
+    <t>ko00405</t>
+  </si>
+  <si>
+    <t>ko00333</t>
+  </si>
+  <si>
+    <t>ko00362</t>
+  </si>
+  <si>
+    <t>ko00627</t>
+  </si>
+  <si>
+    <t>ko00364</t>
+  </si>
+  <si>
+    <t>ko00625</t>
+  </si>
+  <si>
+    <t>ko00361</t>
+  </si>
+  <si>
+    <t>ko00622</t>
+  </si>
+  <si>
+    <t>ko00633</t>
+  </si>
+  <si>
+    <t>ko00642</t>
+  </si>
+  <si>
+    <t>ko00643</t>
+  </si>
+  <si>
+    <t>ko00791</t>
+  </si>
+  <si>
+    <t>ko00930</t>
+  </si>
+  <si>
+    <t>ko00621</t>
+  </si>
+  <si>
+    <t>ko00984</t>
+  </si>
+  <si>
+    <t>ko00980</t>
+  </si>
+  <si>
+    <t>ko00626</t>
+  </si>
+  <si>
+    <t>ko00982</t>
+  </si>
+  <si>
+    <t>ko00983</t>
+  </si>
+  <si>
+    <t>ko03020</t>
+  </si>
+  <si>
+    <t>ko03022</t>
+  </si>
+  <si>
+    <t>ko03040</t>
+  </si>
+  <si>
+    <t>ko03010</t>
+  </si>
+  <si>
+    <t>ko00970</t>
+  </si>
+  <si>
+    <t>ko03013</t>
+  </si>
+  <si>
+    <t>ko03015</t>
+  </si>
+  <si>
+    <t>ko03008</t>
+  </si>
+  <si>
+    <t>ko03060</t>
+  </si>
+  <si>
+    <t>ko04141</t>
+  </si>
+  <si>
+    <t>ko04130</t>
+  </si>
+  <si>
+    <t>ko04120</t>
+  </si>
+  <si>
+    <t>ko04122</t>
+  </si>
+  <si>
+    <t>ko03050</t>
+  </si>
+  <si>
+    <t>ko03018</t>
+  </si>
+  <si>
+    <t>ko03030</t>
+  </si>
+  <si>
+    <t>ko03410</t>
+  </si>
+  <si>
+    <t>ko03420</t>
+  </si>
+  <si>
+    <t>ko03430</t>
+  </si>
+  <si>
+    <t>ko03440</t>
+  </si>
+  <si>
+    <t>ko03450</t>
+  </si>
+  <si>
+    <t>ko03460</t>
+  </si>
+  <si>
+    <t>ko02010</t>
+  </si>
+  <si>
+    <t>ko02060</t>
+  </si>
+  <si>
+    <t>ko03070</t>
+  </si>
+  <si>
+    <t>ko02020</t>
+  </si>
+  <si>
+    <t>ko04014</t>
+  </si>
+  <si>
+    <t>ko04015</t>
+  </si>
+  <si>
+    <t>ko04010</t>
+  </si>
+  <si>
+    <t>ko04011</t>
+  </si>
+  <si>
+    <t>ko04012</t>
+  </si>
+  <si>
+    <t>ko04310</t>
+  </si>
+  <si>
+    <t>ko04330</t>
+  </si>
+  <si>
+    <t>ko04340</t>
+  </si>
+  <si>
+    <t>ko04350</t>
+  </si>
+  <si>
+    <t>ko04390</t>
+  </si>
+  <si>
+    <t>ko04392</t>
+  </si>
+  <si>
+    <t>ko04370</t>
+  </si>
+  <si>
+    <t>ko04371</t>
+  </si>
+  <si>
+    <t>ko04630</t>
+  </si>
+  <si>
+    <t>ko04064</t>
+  </si>
+  <si>
+    <t>ko04668</t>
+  </si>
+  <si>
+    <t>ko04066</t>
+  </si>
+  <si>
+    <t>ko04068</t>
+  </si>
+  <si>
+    <t>ko04020</t>
+  </si>
+  <si>
+    <t>ko04070</t>
+  </si>
+  <si>
+    <t>ko04072</t>
+  </si>
+  <si>
+    <t>ko04071</t>
+  </si>
+  <si>
+    <t>ko04024</t>
+  </si>
+  <si>
+    <t>ko04151</t>
+  </si>
+  <si>
+    <t>ko04022</t>
+  </si>
+  <si>
+    <t>ko04152</t>
+  </si>
+  <si>
+    <t>ko04150</t>
+  </si>
+  <si>
+    <t>ko04080</t>
+  </si>
+  <si>
+    <t>ko04060</t>
+  </si>
+  <si>
+    <t>ko04512</t>
+  </si>
+  <si>
+    <t>ko04144</t>
+  </si>
+  <si>
+    <t>ko04514</t>
+  </si>
+  <si>
+    <t>ko04145</t>
+  </si>
+  <si>
+    <t>ko04142</t>
+  </si>
+  <si>
+    <t>ko04146</t>
+  </si>
+  <si>
+    <t>ko04138</t>
+  </si>
+  <si>
+    <t>ko04136</t>
+  </si>
+  <si>
+    <t>ko04139</t>
+  </si>
+  <si>
+    <t>ko04110</t>
+  </si>
+  <si>
+    <t>ko04111</t>
+  </si>
+  <si>
+    <t>ko04112</t>
+  </si>
+  <si>
+    <t>ko04113</t>
+  </si>
+  <si>
+    <t>ko04210</t>
+  </si>
+  <si>
+    <t>ko02024</t>
+  </si>
+  <si>
+    <t>ko02025</t>
+  </si>
+  <si>
+    <t>ko05111</t>
+  </si>
+  <si>
+    <t>ko04216</t>
+  </si>
+  <si>
+    <t>ko02026</t>
+  </si>
+  <si>
+    <t>ko02030</t>
+  </si>
+  <si>
+    <t>ko02040</t>
+  </si>
+  <si>
+    <t>ko04810</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AF8DA4-C068-49EA-B0A2-6BB208F7819F}">
   <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O190" sqref="O190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>39</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>37</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>49</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>339</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>496</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>22</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>419</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>17</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>21</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>173</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>2758</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>2229</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>1369</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>1098</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>1129</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>365</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>455</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>692</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>108</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>690</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>430</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>416</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>245</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>229</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>81</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>755</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>124</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>149</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>52</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>422</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>393</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>162</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>9</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>112</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>179</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>66</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>118</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>7</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>277</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>11</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B74">
         <v>26</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>181</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>119</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>470</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>832</v>
@@ -3522,7 +3522,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>583</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>523</v>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>264</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>233</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>530</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>569</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>459</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>56</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>467</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>655</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>25</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>530</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>174</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>490</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>16</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>80</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>17</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B101">
         <v>240</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B102">
         <v>15</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B103">
         <v>24</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B104">
         <v>63</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B105">
         <v>248</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B108">
         <v>59</v>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B109">
         <v>109</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B110">
         <v>163</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B111">
         <v>12</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B112">
         <v>45</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B114">
         <v>64</v>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B115">
         <v>259</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B116">
         <v>533</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B117">
         <v>97</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B118">
         <v>135</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B119">
         <v>185</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B120">
         <v>45</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B121">
         <v>232</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B122">
         <v>25</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B123">
         <v>20</v>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B125">
         <v>81</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5058,7 +5058,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B127">
         <v>3</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B128">
         <v>54</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B131">
         <v>27</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B132">
         <v>15</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>60</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B136">
         <v>17</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B137">
         <v>15</v>
@@ -5410,7 +5410,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B138">
         <v>504</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B139">
         <v>309</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B140">
         <v>19</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B141">
         <v>157</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B142">
         <v>2143</v>
@@ -5570,7 +5570,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B143">
         <v>1642</v>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B144">
         <v>160</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B145">
         <v>102</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B146">
         <v>157</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="B147">
         <v>533</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="B148">
         <v>282</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="B150">
         <v>97</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="B151">
         <v>174</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="B152">
         <v>35</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="B153">
         <v>1015</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B154">
         <v>761</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B155">
         <v>473</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B156">
         <v>728</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B157">
         <v>960</v>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B158">
         <v>970</v>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B159">
         <v>19</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B160">
         <v>29</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B161">
         <v>1621</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B162">
         <v>152</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B163">
         <v>480</v>
@@ -6242,7 +6242,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B164">
         <v>1914</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B165">
         <v>30</v>
@@ -6306,7 +6306,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B166">
         <v>41</v>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B167">
         <v>64</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B168">
         <v>75</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B169">
         <v>25</v>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B170">
         <v>79</v>
@@ -6466,7 +6466,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B171">
         <v>14</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B172">
         <v>45</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B173">
         <v>19</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B174">
         <v>84</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B175">
         <v>44</v>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B176">
         <v>24</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B177">
         <v>50</v>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B178">
         <v>16</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B179">
         <v>26</v>
@@ -6754,7 +6754,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B180">
         <v>21</v>
@@ -6786,7 +6786,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B181">
         <v>184</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B182">
         <v>164</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B183">
         <v>43</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B184">
         <v>143</v>
@@ -6914,7 +6914,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B185">
         <v>46</v>
@@ -6946,7 +6946,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B186">
         <v>66</v>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B187">
         <v>89</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B188">
         <v>53</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B189">
         <v>213</v>
@@ -7074,7 +7074,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B190">
         <v>211</v>
@@ -7106,7 +7106,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B191">
         <v>63</v>
@@ -7138,7 +7138,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B192">
         <v>8</v>
@@ -7170,7 +7170,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -7202,7 +7202,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -7234,7 +7234,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B196">
         <v>108</v>
@@ -7298,7 +7298,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="B197">
         <v>160</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B198">
         <v>449</v>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B199">
         <v>289</v>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B200">
         <v>83</v>
@@ -7426,7 +7426,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B201">
         <v>31</v>
@@ -7458,7 +7458,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="B202">
         <v>38</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B203">
         <v>83</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B204">
         <v>77</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B205">
         <v>602</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="B206">
         <v>94</v>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B207">
         <v>116</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="B208">
         <v>158</v>
@@ -7682,7 +7682,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B209">
         <v>1303</v>
@@ -7714,7 +7714,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B210">
         <v>405</v>
@@ -7746,7 +7746,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="B211">
         <v>223</v>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B212">
         <v>386</v>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B213">
         <v>74</v>
@@ -7842,7 +7842,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="B214">
         <v>52</v>
@@ -7874,7 +7874,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B215">
         <v>73</v>

--- a/KEGG/kegg_counts.xlsx
+++ b/KEGG/kegg_counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Squirrel_MetaG\KEGG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DF8FB1-64CE-453E-A05F-19E94340D180}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC06AD3-0E04-40B8-B192-0CFB6EA906E9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{0B622ED4-1555-4BF9-B98B-578A2E819430}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>ko00010</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>ko04810</t>
+  </si>
+  <si>
+    <t>ko00281</t>
   </si>
 </sst>
 </file>
@@ -699,9 +702,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AF8DA4-C068-49EA-B0A2-6BB208F7819F}">
   <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O190" sqref="O190"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4160,35 +4165,35 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B99">
+    <row r="99" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B99" s="3">
         <v>3</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="3">
         <v>7</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
         <v>20</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>12</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>12</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="3">
         <v>4</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="3">
         <v>10</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="3">
         <v>7</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="3">
         <v>15</v>
       </c>
     </row>

--- a/KEGG/kegg_counts.xlsx
+++ b/KEGG/kegg_counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Squirrel_MetaG\KEGG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC06AD3-0E04-40B8-B192-0CFB6EA906E9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91AC0CF4-5F6D-437B-A743-B0372979C8B2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{0B622ED4-1555-4BF9-B98B-578A2E819430}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>ko00010</t>
   </si>
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>ko00905</t>
-  </si>
-  <si>
-    <t>ko00981</t>
   </si>
   <si>
     <t>ko00908</t>
@@ -1021,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AF8DA4-C068-49EA-B0A2-6BB208F7819F}">
-  <dimension ref="A1:J215"/>
+  <dimension ref="A1:J214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+      <selection activeCell="A96" sqref="A96:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4074,31 +4071,31 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C96">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="D96">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="E96">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="F96">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="G96">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="H96">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I96">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="J96">
-        <v>39</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4106,95 +4103,95 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="D97">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E97">
+        <v>30</v>
+      </c>
+      <c r="F97">
+        <v>56</v>
+      </c>
+      <c r="G97">
+        <v>27</v>
+      </c>
+      <c r="H97">
+        <v>23</v>
+      </c>
+      <c r="I97">
+        <v>27</v>
+      </c>
+      <c r="J97">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" s="3">
+        <v>3</v>
+      </c>
+      <c r="C98" s="3">
+        <v>7</v>
+      </c>
+      <c r="D98" s="3">
+        <v>20</v>
+      </c>
+      <c r="E98" s="3">
+        <v>12</v>
+      </c>
+      <c r="F98" s="3">
+        <v>12</v>
+      </c>
+      <c r="G98" s="3">
+        <v>4</v>
+      </c>
+      <c r="H98" s="3">
+        <v>10</v>
+      </c>
+      <c r="I98" s="3">
+        <v>7</v>
+      </c>
+      <c r="J98" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99">
         <v>99</v>
       </c>
-      <c r="F97">
-        <v>146</v>
-      </c>
-      <c r="G97">
+      <c r="C99">
+        <v>204</v>
+      </c>
+      <c r="D99">
+        <v>191</v>
+      </c>
+      <c r="E99">
+        <v>164</v>
+      </c>
+      <c r="F99">
+        <v>378</v>
+      </c>
+      <c r="G99">
+        <v>205</v>
+      </c>
+      <c r="H99">
         <v>129</v>
       </c>
-      <c r="H97">
-        <v>85</v>
-      </c>
-      <c r="I97">
-        <v>120</v>
-      </c>
-      <c r="J97">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>17</v>
-      </c>
-      <c r="C98">
-        <v>42</v>
-      </c>
-      <c r="D98">
-        <v>29</v>
-      </c>
-      <c r="E98">
-        <v>30</v>
-      </c>
-      <c r="F98">
-        <v>56</v>
-      </c>
-      <c r="G98">
-        <v>27</v>
-      </c>
-      <c r="H98">
-        <v>23</v>
-      </c>
-      <c r="I98">
-        <v>27</v>
-      </c>
-      <c r="J98">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B99" s="3">
-        <v>3</v>
-      </c>
-      <c r="C99" s="3">
-        <v>7</v>
-      </c>
-      <c r="D99" s="3">
-        <v>20</v>
-      </c>
-      <c r="E99" s="3">
-        <v>12</v>
-      </c>
-      <c r="F99" s="3">
-        <v>12</v>
-      </c>
-      <c r="G99" s="3">
-        <v>4</v>
-      </c>
-      <c r="H99" s="3">
-        <v>10</v>
-      </c>
-      <c r="I99" s="3">
-        <v>7</v>
-      </c>
-      <c r="J99" s="3">
-        <v>15</v>
+      <c r="I99">
+        <v>234</v>
+      </c>
+      <c r="J99">
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4202,31 +4199,31 @@
         <v>97</v>
       </c>
       <c r="B100">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="C100">
-        <v>204</v>
+        <v>436</v>
       </c>
       <c r="D100">
-        <v>191</v>
+        <v>347</v>
       </c>
       <c r="E100">
-        <v>164</v>
+        <v>353</v>
       </c>
       <c r="F100">
-        <v>378</v>
+        <v>544</v>
       </c>
       <c r="G100">
-        <v>205</v>
+        <v>502</v>
       </c>
       <c r="H100">
-        <v>129</v>
+        <v>271</v>
       </c>
       <c r="I100">
-        <v>234</v>
+        <v>427</v>
       </c>
       <c r="J100">
-        <v>282</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -4234,31 +4231,31 @@
         <v>98</v>
       </c>
       <c r="B101">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>436</v>
+        <v>45</v>
       </c>
       <c r="D101">
-        <v>347</v>
+        <v>38</v>
       </c>
       <c r="E101">
-        <v>353</v>
+        <v>24</v>
       </c>
       <c r="F101">
-        <v>544</v>
+        <v>84</v>
       </c>
       <c r="G101">
-        <v>502</v>
+        <v>65</v>
       </c>
       <c r="H101">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="I101">
-        <v>427</v>
+        <v>25</v>
       </c>
       <c r="J101">
-        <v>373</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -4266,31 +4263,31 @@
         <v>99</v>
       </c>
       <c r="B102">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C102">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D102">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E102">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F102">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G102">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H102">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I102">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J102">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -4298,31 +4295,31 @@
         <v>100</v>
       </c>
       <c r="B103">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C103">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="D103">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E103">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F103">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="G103">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="H103">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I103">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="J103">
-        <v>41</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -4330,31 +4327,31 @@
         <v>101</v>
       </c>
       <c r="B104">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="C104">
-        <v>123</v>
+        <v>355</v>
       </c>
       <c r="D104">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="E104">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="F104">
-        <v>160</v>
+        <v>563</v>
       </c>
       <c r="G104">
-        <v>145</v>
+        <v>436</v>
       </c>
       <c r="H104">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="I104">
-        <v>138</v>
+        <v>455</v>
       </c>
       <c r="J104">
-        <v>112</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -4362,31 +4359,31 @@
         <v>102</v>
       </c>
       <c r="B105">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="C105">
-        <v>355</v>
+        <v>9</v>
       </c>
       <c r="D105">
-        <v>295</v>
+        <v>7</v>
       </c>
       <c r="E105">
-        <v>261</v>
+        <v>7</v>
       </c>
       <c r="F105">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="G105">
-        <v>436</v>
+        <v>4</v>
       </c>
       <c r="H105">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="I105">
-        <v>455</v>
+        <v>6</v>
       </c>
       <c r="J105">
-        <v>415</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -4426,31 +4423,31 @@
         <v>104</v>
       </c>
       <c r="B107">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C107">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D107">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="E107">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="G107">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="H107">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="I107">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="J107">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -4458,31 +4455,31 @@
         <v>105</v>
       </c>
       <c r="B108">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C108">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="D108">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="E108">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="F108">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="G108">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="H108">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="I108">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="J108">
-        <v>90</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -4490,31 +4487,31 @@
         <v>106</v>
       </c>
       <c r="B109">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="C109">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="D109">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="E109">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="F109">
-        <v>219</v>
+        <v>353</v>
       </c>
       <c r="G109">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="H109">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="I109">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="J109">
-        <v>166</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -4522,31 +4519,31 @@
         <v>107</v>
       </c>
       <c r="B110">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="C110">
-        <v>239</v>
+        <v>9</v>
       </c>
       <c r="D110">
-        <v>228</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>228</v>
+        <v>4</v>
       </c>
       <c r="F110">
-        <v>353</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>283</v>
+        <v>16</v>
       </c>
       <c r="J110">
-        <v>276</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -4554,31 +4551,31 @@
         <v>108</v>
       </c>
       <c r="B111">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C111">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="I111">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -4586,31 +4583,31 @@
         <v>109</v>
       </c>
       <c r="B112">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="D112">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E112">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F112">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="G112">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="H112">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I112">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J112">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -4618,31 +4615,31 @@
         <v>110</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C113">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="D113">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="E113">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F113">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="G113">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="H113">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="I113">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="J113">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -4650,31 +4647,31 @@
         <v>111</v>
       </c>
       <c r="B114">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="C114">
-        <v>111</v>
+        <v>394</v>
       </c>
       <c r="D114">
-        <v>91</v>
+        <v>347</v>
       </c>
       <c r="E114">
-        <v>84</v>
+        <v>412</v>
       </c>
       <c r="F114">
-        <v>202</v>
+        <v>618</v>
       </c>
       <c r="G114">
-        <v>127</v>
+        <v>472</v>
       </c>
       <c r="H114">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c r="I114">
-        <v>105</v>
+        <v>422</v>
       </c>
       <c r="J114">
-        <v>129</v>
+        <v>487</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -4682,31 +4679,31 @@
         <v>112</v>
       </c>
       <c r="B115">
-        <v>259</v>
+        <v>533</v>
       </c>
       <c r="C115">
-        <v>394</v>
+        <v>881</v>
       </c>
       <c r="D115">
-        <v>347</v>
+        <v>692</v>
       </c>
       <c r="E115">
-        <v>412</v>
+        <v>759</v>
       </c>
       <c r="F115">
-        <v>618</v>
+        <v>1116</v>
       </c>
       <c r="G115">
-        <v>472</v>
+        <v>969</v>
       </c>
       <c r="H115">
-        <v>285</v>
+        <v>556</v>
       </c>
       <c r="I115">
-        <v>422</v>
+        <v>840</v>
       </c>
       <c r="J115">
-        <v>487</v>
+        <v>816</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -4714,31 +4711,31 @@
         <v>113</v>
       </c>
       <c r="B116">
-        <v>533</v>
+        <v>97</v>
       </c>
       <c r="C116">
-        <v>881</v>
+        <v>146</v>
       </c>
       <c r="D116">
-        <v>692</v>
+        <v>102</v>
       </c>
       <c r="E116">
-        <v>759</v>
+        <v>128</v>
       </c>
       <c r="F116">
-        <v>1116</v>
+        <v>180</v>
       </c>
       <c r="G116">
-        <v>969</v>
+        <v>143</v>
       </c>
       <c r="H116">
-        <v>556</v>
+        <v>94</v>
       </c>
       <c r="I116">
-        <v>840</v>
+        <v>138</v>
       </c>
       <c r="J116">
-        <v>816</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -4746,31 +4743,31 @@
         <v>114</v>
       </c>
       <c r="B117">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C117">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="D117">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="E117">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="F117">
-        <v>180</v>
+        <v>329</v>
       </c>
       <c r="G117">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="H117">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="I117">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="J117">
-        <v>150</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -4778,31 +4775,31 @@
         <v>115</v>
       </c>
       <c r="B118">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="C118">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="D118">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="E118">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="F118">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="G118">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="H118">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="I118">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="J118">
-        <v>214</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -4810,31 +4807,31 @@
         <v>116</v>
       </c>
       <c r="B119">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="C119">
-        <v>283</v>
+        <v>68</v>
       </c>
       <c r="D119">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="E119">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="F119">
-        <v>421</v>
+        <v>85</v>
       </c>
       <c r="G119">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="H119">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="I119">
-        <v>321</v>
+        <v>71</v>
       </c>
       <c r="J119">
-        <v>331</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -4842,31 +4839,31 @@
         <v>117</v>
       </c>
       <c r="B120">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="C120">
-        <v>68</v>
+        <v>409</v>
       </c>
       <c r="D120">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="E120">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="F120">
-        <v>85</v>
+        <v>478</v>
       </c>
       <c r="G120">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="H120">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="I120">
-        <v>71</v>
+        <v>339</v>
       </c>
       <c r="J120">
-        <v>70</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -4874,31 +4871,31 @@
         <v>118</v>
       </c>
       <c r="B121">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="C121">
-        <v>409</v>
+        <v>83</v>
       </c>
       <c r="D121">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c r="E121">
-        <v>316</v>
+        <v>84</v>
       </c>
       <c r="F121">
-        <v>478</v>
+        <v>170</v>
       </c>
       <c r="G121">
-        <v>396</v>
+        <v>85</v>
       </c>
       <c r="H121">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="I121">
-        <v>339</v>
+        <v>106</v>
       </c>
       <c r="J121">
-        <v>388</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -4906,31 +4903,31 @@
         <v>119</v>
       </c>
       <c r="B122">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C122">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D122">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="E122">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F122">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="G122">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H122">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I122">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="J122">
-        <v>141</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -4938,31 +4935,31 @@
         <v>120</v>
       </c>
       <c r="B123">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -4970,31 +4967,31 @@
         <v>121</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -5002,31 +4999,31 @@
         <v>122</v>
       </c>
       <c r="B125">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C125">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="D125">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="F125">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="G125">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="H125">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="I125">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="J125">
-        <v>196</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -5034,22 +5031,22 @@
         <v>123</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C126">
+        <v>19</v>
+      </c>
+      <c r="D126">
         <v>13</v>
       </c>
-      <c r="D126">
-        <v>9</v>
-      </c>
       <c r="E126">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F126">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G126">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H126">
         <v>8</v>
@@ -5058,7 +5055,7 @@
         <v>20</v>
       </c>
       <c r="J126">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -5066,31 +5063,31 @@
         <v>124</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C127">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="D127">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E127">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="F127">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="G127">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H127">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I127">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J127">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -5098,31 +5095,31 @@
         <v>125</v>
       </c>
       <c r="B128">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C128">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="E128">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="F128">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="G128">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>111</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -5130,31 +5127,31 @@
         <v>126</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>3</v>
       </c>
       <c r="D129">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E129">
+        <v>11</v>
+      </c>
+      <c r="F129">
+        <v>11</v>
+      </c>
+      <c r="G129">
+        <v>5</v>
+      </c>
+      <c r="H129">
+        <v>10</v>
+      </c>
+      <c r="I129">
         <v>3</v>
       </c>
-      <c r="F129">
-        <v>3</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>3</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
       <c r="J129">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -5162,31 +5159,31 @@
         <v>127</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D130">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E130">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F130">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G130">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H130">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="J130">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -5194,31 +5191,31 @@
         <v>128</v>
       </c>
       <c r="B131">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C131">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D131">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E131">
+        <v>32</v>
+      </c>
+      <c r="F131">
+        <v>55</v>
+      </c>
+      <c r="G131">
         <v>37</v>
       </c>
-      <c r="F131">
-        <v>33</v>
-      </c>
-      <c r="G131">
-        <v>38</v>
-      </c>
       <c r="H131">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I131">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J131">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -5226,95 +5223,95 @@
         <v>129</v>
       </c>
       <c r="B132">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C132">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D132">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E132">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F132">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="G132">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H132">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I132">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J132">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C133">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D133">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="E133">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="F133">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="G133">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H133">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="I133">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="J133">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B134">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="C134">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="F134">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="G134">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="H134">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="I134">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="J134">
-        <v>138</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -5322,63 +5319,63 @@
         <v>131</v>
       </c>
       <c r="B135">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E135">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F135">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="G135">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I135">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J135">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B136">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C136">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D136">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E136">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F136">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G136">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H136">
+        <v>15</v>
+      </c>
+      <c r="I136">
         <v>19</v>
       </c>
-      <c r="I136">
-        <v>27</v>
-      </c>
       <c r="J136">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -5386,31 +5383,31 @@
         <v>134</v>
       </c>
       <c r="B137">
-        <v>15</v>
+        <v>504</v>
       </c>
       <c r="C137">
-        <v>28</v>
+        <v>856</v>
       </c>
       <c r="D137">
-        <v>16</v>
+        <v>702</v>
       </c>
       <c r="E137">
-        <v>22</v>
+        <v>775</v>
       </c>
       <c r="F137">
-        <v>22</v>
+        <v>1089</v>
       </c>
       <c r="G137">
-        <v>20</v>
+        <v>956</v>
       </c>
       <c r="H137">
-        <v>15</v>
+        <v>549</v>
       </c>
       <c r="I137">
-        <v>19</v>
+        <v>816</v>
       </c>
       <c r="J137">
-        <v>20</v>
+        <v>844</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -5418,31 +5415,31 @@
         <v>135</v>
       </c>
       <c r="B138">
-        <v>504</v>
+        <v>309</v>
       </c>
       <c r="C138">
-        <v>856</v>
+        <v>501</v>
       </c>
       <c r="D138">
-        <v>702</v>
+        <v>468</v>
       </c>
       <c r="E138">
-        <v>775</v>
+        <v>554</v>
       </c>
       <c r="F138">
-        <v>1089</v>
+        <v>841</v>
       </c>
       <c r="G138">
-        <v>956</v>
+        <v>600</v>
       </c>
       <c r="H138">
-        <v>549</v>
+        <v>399</v>
       </c>
       <c r="I138">
-        <v>816</v>
+        <v>701</v>
       </c>
       <c r="J138">
-        <v>844</v>
+        <v>539</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -5450,31 +5447,31 @@
         <v>136</v>
       </c>
       <c r="B139">
-        <v>309</v>
+        <v>19</v>
       </c>
       <c r="C139">
-        <v>501</v>
+        <v>7</v>
       </c>
       <c r="D139">
-        <v>468</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>841</v>
+        <v>1</v>
       </c>
       <c r="G139">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="H139">
-        <v>399</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>701</v>
+        <v>27</v>
       </c>
       <c r="J139">
-        <v>539</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -5482,31 +5479,31 @@
         <v>137</v>
       </c>
       <c r="B140">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="C140">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G140">
         <v>10</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I140">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="J140">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -5514,31 +5511,31 @@
         <v>138</v>
       </c>
       <c r="B141">
-        <v>157</v>
+        <v>2143</v>
       </c>
       <c r="C141">
-        <v>74</v>
+        <v>4034</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>3002</v>
       </c>
       <c r="E141">
-        <v>6</v>
+        <v>3474</v>
       </c>
       <c r="F141">
-        <v>9</v>
+        <v>5117</v>
       </c>
       <c r="G141">
-        <v>10</v>
+        <v>4220</v>
       </c>
       <c r="H141">
-        <v>14</v>
+        <v>2756</v>
       </c>
       <c r="I141">
-        <v>147</v>
+        <v>3900</v>
       </c>
       <c r="J141">
-        <v>11</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -5546,31 +5543,31 @@
         <v>139</v>
       </c>
       <c r="B142">
-        <v>2143</v>
+        <v>1642</v>
       </c>
       <c r="C142">
-        <v>4034</v>
+        <v>2772</v>
       </c>
       <c r="D142">
-        <v>3002</v>
+        <v>2433</v>
       </c>
       <c r="E142">
-        <v>3474</v>
+        <v>2790</v>
       </c>
       <c r="F142">
-        <v>5117</v>
+        <v>4235</v>
       </c>
       <c r="G142">
-        <v>4220</v>
+        <v>3299</v>
       </c>
       <c r="H142">
-        <v>2756</v>
+        <v>2156</v>
       </c>
       <c r="I142">
-        <v>3900</v>
+        <v>3179</v>
       </c>
       <c r="J142">
-        <v>3552</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -5578,31 +5575,31 @@
         <v>140</v>
       </c>
       <c r="B143">
-        <v>1642</v>
+        <v>160</v>
       </c>
       <c r="C143">
-        <v>2772</v>
+        <v>177</v>
       </c>
       <c r="D143">
-        <v>2433</v>
+        <v>81</v>
       </c>
       <c r="E143">
-        <v>2790</v>
+        <v>96</v>
       </c>
       <c r="F143">
-        <v>4235</v>
+        <v>124</v>
       </c>
       <c r="G143">
-        <v>3299</v>
+        <v>110</v>
       </c>
       <c r="H143">
-        <v>2156</v>
+        <v>77</v>
       </c>
       <c r="I143">
-        <v>3179</v>
+        <v>207</v>
       </c>
       <c r="J143">
-        <v>2953</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -5610,31 +5607,31 @@
         <v>141</v>
       </c>
       <c r="B144">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="C144">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="D144">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="E144">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="F144">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="G144">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="H144">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="I144">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="J144">
-        <v>114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -5642,31 +5639,31 @@
         <v>142</v>
       </c>
       <c r="B145">
+        <v>157</v>
+      </c>
+      <c r="C145">
+        <v>128</v>
+      </c>
+      <c r="D145">
+        <v>50</v>
+      </c>
+      <c r="E145">
+        <v>64</v>
+      </c>
+      <c r="F145">
         <v>102</v>
       </c>
-      <c r="C145">
-        <v>70</v>
-      </c>
-      <c r="D145">
-        <v>13</v>
-      </c>
-      <c r="E145">
-        <v>9</v>
-      </c>
-      <c r="F145">
-        <v>12</v>
-      </c>
       <c r="G145">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="H145">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="I145">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="J145">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -5674,31 +5671,31 @@
         <v>143</v>
       </c>
       <c r="B146">
-        <v>157</v>
+        <v>533</v>
       </c>
       <c r="C146">
-        <v>128</v>
+        <v>959</v>
       </c>
       <c r="D146">
-        <v>50</v>
+        <v>779</v>
       </c>
       <c r="E146">
-        <v>64</v>
+        <v>910</v>
       </c>
       <c r="F146">
-        <v>102</v>
+        <v>1265</v>
       </c>
       <c r="G146">
-        <v>78</v>
+        <v>1088</v>
       </c>
       <c r="H146">
-        <v>73</v>
+        <v>694</v>
       </c>
       <c r="I146">
-        <v>235</v>
+        <v>964</v>
       </c>
       <c r="J146">
-        <v>72</v>
+        <v>921</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -5706,31 +5703,31 @@
         <v>144</v>
       </c>
       <c r="B147">
-        <v>533</v>
+        <v>282</v>
       </c>
       <c r="C147">
-        <v>959</v>
+        <v>274</v>
       </c>
       <c r="D147">
-        <v>779</v>
+        <v>152</v>
       </c>
       <c r="E147">
-        <v>910</v>
+        <v>162</v>
       </c>
       <c r="F147">
-        <v>1265</v>
+        <v>267</v>
       </c>
       <c r="G147">
-        <v>1088</v>
+        <v>216</v>
       </c>
       <c r="H147">
-        <v>694</v>
+        <v>151</v>
       </c>
       <c r="I147">
-        <v>964</v>
+        <v>450</v>
       </c>
       <c r="J147">
-        <v>921</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -5738,31 +5735,31 @@
         <v>145</v>
       </c>
       <c r="B148">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="C148">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>450</v>
+        <v>9</v>
       </c>
       <c r="J148">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -5770,31 +5767,31 @@
         <v>146</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I149">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -5802,31 +5799,31 @@
         <v>147</v>
       </c>
       <c r="B150">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="C150">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="D150">
-        <v>33</v>
+        <v>289</v>
       </c>
       <c r="E150">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="F150">
-        <v>38</v>
+        <v>557</v>
       </c>
       <c r="G150">
-        <v>32</v>
+        <v>378</v>
       </c>
       <c r="H150">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="I150">
-        <v>151</v>
+        <v>389</v>
       </c>
       <c r="J150">
-        <v>28</v>
+        <v>416</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -5834,31 +5831,31 @@
         <v>148</v>
       </c>
       <c r="B151">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="C151">
-        <v>304</v>
+        <v>23</v>
       </c>
       <c r="D151">
-        <v>289</v>
+        <v>7</v>
       </c>
       <c r="E151">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>557</v>
+        <v>9</v>
       </c>
       <c r="G151">
-        <v>378</v>
+        <v>3</v>
       </c>
       <c r="H151">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="I151">
-        <v>389</v>
+        <v>66</v>
       </c>
       <c r="J151">
-        <v>416</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -5866,31 +5863,31 @@
         <v>149</v>
       </c>
       <c r="B152">
-        <v>35</v>
+        <v>1015</v>
       </c>
       <c r="C152">
-        <v>23</v>
+        <v>1501</v>
       </c>
       <c r="D152">
-        <v>7</v>
+        <v>1353</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>1425</v>
       </c>
       <c r="F152">
-        <v>9</v>
+        <v>2178</v>
       </c>
       <c r="G152">
-        <v>3</v>
+        <v>1819</v>
       </c>
       <c r="H152">
-        <v>8</v>
+        <v>1166</v>
       </c>
       <c r="I152">
-        <v>66</v>
+        <v>1752</v>
       </c>
       <c r="J152">
-        <v>9</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -5898,31 +5895,31 @@
         <v>150</v>
       </c>
       <c r="B153">
-        <v>1015</v>
+        <v>761</v>
       </c>
       <c r="C153">
-        <v>1501</v>
+        <v>1415</v>
       </c>
       <c r="D153">
-        <v>1353</v>
+        <v>1190</v>
       </c>
       <c r="E153">
-        <v>1425</v>
+        <v>1302</v>
       </c>
       <c r="F153">
-        <v>2178</v>
+        <v>2075</v>
       </c>
       <c r="G153">
-        <v>1819</v>
+        <v>1616</v>
       </c>
       <c r="H153">
-        <v>1166</v>
+        <v>1064</v>
       </c>
       <c r="I153">
-        <v>1752</v>
+        <v>1552</v>
       </c>
       <c r="J153">
-        <v>1578</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -5930,31 +5927,31 @@
         <v>151</v>
       </c>
       <c r="B154">
-        <v>761</v>
+        <v>473</v>
       </c>
       <c r="C154">
-        <v>1415</v>
+        <v>850</v>
       </c>
       <c r="D154">
-        <v>1190</v>
+        <v>709</v>
       </c>
       <c r="E154">
-        <v>1302</v>
+        <v>829</v>
       </c>
       <c r="F154">
-        <v>2075</v>
+        <v>1246</v>
       </c>
       <c r="G154">
-        <v>1616</v>
+        <v>963</v>
       </c>
       <c r="H154">
-        <v>1064</v>
+        <v>673</v>
       </c>
       <c r="I154">
-        <v>1552</v>
+        <v>906</v>
       </c>
       <c r="J154">
-        <v>1481</v>
+        <v>890</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -5962,31 +5959,31 @@
         <v>152</v>
       </c>
       <c r="B155">
-        <v>473</v>
+        <v>728</v>
       </c>
       <c r="C155">
-        <v>850</v>
+        <v>1224</v>
       </c>
       <c r="D155">
-        <v>709</v>
+        <v>1060</v>
       </c>
       <c r="E155">
-        <v>829</v>
+        <v>1183</v>
       </c>
       <c r="F155">
-        <v>1246</v>
+        <v>1852</v>
       </c>
       <c r="G155">
-        <v>963</v>
+        <v>1447</v>
       </c>
       <c r="H155">
-        <v>673</v>
+        <v>904</v>
       </c>
       <c r="I155">
-        <v>906</v>
+        <v>1442</v>
       </c>
       <c r="J155">
-        <v>890</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -5994,31 +5991,31 @@
         <v>153</v>
       </c>
       <c r="B156">
-        <v>728</v>
+        <v>960</v>
       </c>
       <c r="C156">
-        <v>1224</v>
+        <v>1680</v>
       </c>
       <c r="D156">
-        <v>1060</v>
+        <v>1398</v>
       </c>
       <c r="E156">
-        <v>1183</v>
+        <v>1580</v>
       </c>
       <c r="F156">
-        <v>1852</v>
+        <v>2592</v>
       </c>
       <c r="G156">
-        <v>1447</v>
+        <v>1960</v>
       </c>
       <c r="H156">
-        <v>904</v>
+        <v>1214</v>
       </c>
       <c r="I156">
-        <v>1442</v>
+        <v>1847</v>
       </c>
       <c r="J156">
-        <v>1247</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -6026,31 +6023,31 @@
         <v>154</v>
       </c>
       <c r="B157">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="C157">
-        <v>1680</v>
+        <v>1800</v>
       </c>
       <c r="D157">
-        <v>1398</v>
+        <v>1566</v>
       </c>
       <c r="E157">
-        <v>1580</v>
+        <v>1674</v>
       </c>
       <c r="F157">
-        <v>2592</v>
+        <v>2671</v>
       </c>
       <c r="G157">
-        <v>1960</v>
+        <v>2115</v>
       </c>
       <c r="H157">
-        <v>1214</v>
+        <v>1332</v>
       </c>
       <c r="I157">
-        <v>1847</v>
+        <v>1931</v>
       </c>
       <c r="J157">
-        <v>1839</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -6058,31 +6055,31 @@
         <v>155</v>
       </c>
       <c r="B158">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="C158">
-        <v>1800</v>
+        <v>13</v>
       </c>
       <c r="D158">
-        <v>1566</v>
+        <v>13</v>
       </c>
       <c r="E158">
-        <v>1674</v>
+        <v>11</v>
       </c>
       <c r="F158">
-        <v>2671</v>
+        <v>34</v>
       </c>
       <c r="G158">
-        <v>2115</v>
+        <v>10</v>
       </c>
       <c r="H158">
-        <v>1332</v>
+        <v>15</v>
       </c>
       <c r="I158">
-        <v>1931</v>
+        <v>27</v>
       </c>
       <c r="J158">
-        <v>1927</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -6090,31 +6087,31 @@
         <v>156</v>
       </c>
       <c r="B159">
+        <v>29</v>
+      </c>
+      <c r="C159">
         <v>19</v>
       </c>
-      <c r="C159">
-        <v>13</v>
-      </c>
       <c r="D159">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G159">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H159">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I159">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="J159">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -6122,31 +6119,31 @@
         <v>157</v>
       </c>
       <c r="B160">
-        <v>29</v>
+        <v>1621</v>
       </c>
       <c r="C160">
-        <v>19</v>
+        <v>3158</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2507</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>3009</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>5383</v>
       </c>
       <c r="G160">
-        <v>2</v>
+        <v>3813</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>1977</v>
       </c>
       <c r="I160">
-        <v>48</v>
+        <v>4114</v>
       </c>
       <c r="J160">
-        <v>2</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -6154,31 +6151,31 @@
         <v>158</v>
       </c>
       <c r="B161">
-        <v>1621</v>
+        <v>152</v>
       </c>
       <c r="C161">
-        <v>3158</v>
+        <v>342</v>
       </c>
       <c r="D161">
-        <v>2507</v>
+        <v>144</v>
       </c>
       <c r="E161">
-        <v>3009</v>
+        <v>248</v>
       </c>
       <c r="F161">
-        <v>5383</v>
+        <v>421</v>
       </c>
       <c r="G161">
-        <v>3813</v>
+        <v>279</v>
       </c>
       <c r="H161">
-        <v>1977</v>
+        <v>90</v>
       </c>
       <c r="I161">
-        <v>4114</v>
+        <v>289</v>
       </c>
       <c r="J161">
-        <v>5116</v>
+        <v>646</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -6186,31 +6183,31 @@
         <v>159</v>
       </c>
       <c r="B162">
-        <v>152</v>
+        <v>480</v>
       </c>
       <c r="C162">
-        <v>342</v>
+        <v>931</v>
       </c>
       <c r="D162">
-        <v>144</v>
+        <v>785</v>
       </c>
       <c r="E162">
-        <v>248</v>
+        <v>914</v>
       </c>
       <c r="F162">
-        <v>421</v>
+        <v>1308</v>
       </c>
       <c r="G162">
-        <v>279</v>
+        <v>1059</v>
       </c>
       <c r="H162">
-        <v>90</v>
+        <v>707</v>
       </c>
       <c r="I162">
-        <v>289</v>
+        <v>973</v>
       </c>
       <c r="J162">
-        <v>646</v>
+        <v>874</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -6218,31 +6215,31 @@
         <v>160</v>
       </c>
       <c r="B163">
-        <v>480</v>
+        <v>1914</v>
       </c>
       <c r="C163">
-        <v>931</v>
+        <v>3547</v>
       </c>
       <c r="D163">
-        <v>785</v>
+        <v>3209</v>
       </c>
       <c r="E163">
-        <v>914</v>
+        <v>3040</v>
       </c>
       <c r="F163">
-        <v>1308</v>
+        <v>6092</v>
       </c>
       <c r="G163">
-        <v>1059</v>
+        <v>4040</v>
       </c>
       <c r="H163">
-        <v>707</v>
+        <v>2226</v>
       </c>
       <c r="I163">
-        <v>973</v>
+        <v>3663</v>
       </c>
       <c r="J163">
-        <v>874</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -6250,31 +6247,31 @@
         <v>161</v>
       </c>
       <c r="B164">
-        <v>1914</v>
+        <v>30</v>
       </c>
       <c r="C164">
-        <v>3547</v>
+        <v>29</v>
       </c>
       <c r="D164">
-        <v>3209</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>3040</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>6092</v>
+        <v>6</v>
       </c>
       <c r="G164">
-        <v>4040</v>
+        <v>4</v>
       </c>
       <c r="H164">
-        <v>2226</v>
+        <v>5</v>
       </c>
       <c r="I164">
-        <v>3663</v>
+        <v>153</v>
       </c>
       <c r="J164">
-        <v>4092</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -6282,31 +6279,31 @@
         <v>162</v>
       </c>
       <c r="B165">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C165">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
         <v>2</v>
       </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-      <c r="F165">
-        <v>6</v>
-      </c>
       <c r="G165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I165">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="J165">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -6314,31 +6311,31 @@
         <v>163</v>
       </c>
       <c r="B166">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C166">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
         <v>2</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I166">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="J166">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -6346,31 +6343,31 @@
         <v>164</v>
       </c>
       <c r="B167">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C167">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G167">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="I167">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="J167">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -6378,31 +6375,31 @@
         <v>165</v>
       </c>
       <c r="B168">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C168">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D168">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G168">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="I168">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="J168">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -6410,31 +6407,31 @@
         <v>166</v>
       </c>
       <c r="B169">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C169">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169">
+        <v>2</v>
+      </c>
+      <c r="G169">
         <v>1</v>
       </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
       <c r="H169">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I169">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="J169">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -6442,31 +6439,31 @@
         <v>167</v>
       </c>
       <c r="B170">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C170">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D170">
         <v>1</v>
       </c>
       <c r="E170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>6</v>
+      </c>
+      <c r="I170">
+        <v>19</v>
+      </c>
+      <c r="J170">
         <v>1</v>
-      </c>
-      <c r="H170">
-        <v>5</v>
-      </c>
-      <c r="I170">
-        <v>147</v>
-      </c>
-      <c r="J170">
-        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -6474,31 +6471,31 @@
         <v>168</v>
       </c>
       <c r="B171">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C171">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H171">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -6506,31 +6503,31 @@
         <v>169</v>
       </c>
       <c r="B172">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C172">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>6</v>
+      </c>
+      <c r="I172">
+        <v>27</v>
+      </c>
+      <c r="J172">
         <v>5</v>
-      </c>
-      <c r="E172">
-        <v>2</v>
-      </c>
-      <c r="F172">
-        <v>6</v>
-      </c>
-      <c r="G172">
-        <v>2</v>
-      </c>
-      <c r="H172">
-        <v>3</v>
-      </c>
-      <c r="I172">
-        <v>61</v>
-      </c>
-      <c r="J172">
-        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -6538,31 +6535,31 @@
         <v>170</v>
       </c>
       <c r="B173">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="C173">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I173">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="J173">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -6570,31 +6567,31 @@
         <v>171</v>
       </c>
       <c r="B174">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C174">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174">
         <v>1</v>
-      </c>
-      <c r="F174">
-        <v>6</v>
       </c>
       <c r="G174">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="J174">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -6602,31 +6599,31 @@
         <v>172</v>
       </c>
       <c r="B175">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C175">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H175">
         <v>2</v>
       </c>
       <c r="I175">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J175">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -6634,31 +6631,31 @@
         <v>173</v>
       </c>
       <c r="B176">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C176">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G176">
         <v>22</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I176">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="J176">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -6666,31 +6663,31 @@
         <v>174</v>
       </c>
       <c r="B177">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C177">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D177">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I177">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="J177">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -6698,10 +6695,10 @@
         <v>175</v>
       </c>
       <c r="B178">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C178">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -6710,19 +6707,19 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I178">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -6730,28 +6727,28 @@
         <v>176</v>
       </c>
       <c r="B179">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C179">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
         <v>1</v>
       </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
       <c r="H179">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="J179">
         <v>1</v>
@@ -6762,31 +6759,31 @@
         <v>177</v>
       </c>
       <c r="B180">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="C180">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="I180">
-        <v>28</v>
+        <v>303</v>
       </c>
       <c r="J180">
-        <v>1</v>
+        <v>269</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -6794,31 +6791,31 @@
         <v>178</v>
       </c>
       <c r="B181">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C181">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="D181">
-        <v>228</v>
+        <v>86</v>
       </c>
       <c r="E181">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="F181">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="G181">
+        <v>112</v>
+      </c>
+      <c r="H181">
+        <v>92</v>
+      </c>
+      <c r="I181">
         <v>261</v>
       </c>
-      <c r="H181">
-        <v>185</v>
-      </c>
-      <c r="I181">
-        <v>303</v>
-      </c>
       <c r="J181">
-        <v>269</v>
+        <v>89</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -6826,31 +6823,31 @@
         <v>179</v>
       </c>
       <c r="B182">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="C182">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="D182">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="E182">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="F182">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G182">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="H182">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I182">
-        <v>261</v>
+        <v>72</v>
       </c>
       <c r="J182">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -6858,31 +6855,31 @@
         <v>180</v>
       </c>
       <c r="B183">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="C183">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="D183">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E183">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F183">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="G183">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="H183">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I183">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="J183">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -6890,31 +6887,31 @@
         <v>181</v>
       </c>
       <c r="B184">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C184">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="D184">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="E184">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="F184">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="G184">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="H184">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="I184">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="J184">
-        <v>118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -6922,31 +6919,31 @@
         <v>182</v>
       </c>
       <c r="B185">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C185">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D185">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E185">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F185">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G185">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="H185">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I185">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="J185">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -6954,127 +6951,127 @@
         <v>183</v>
       </c>
       <c r="B186">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C186">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D186">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F186">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G186">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H186">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I186">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="J186">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B187">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C187">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D187">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E187">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F187">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G187">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H187">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="J187">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B188">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="C188">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="D188">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="E188">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="F188">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="G188">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="I188">
-        <v>113</v>
+        <v>470</v>
       </c>
       <c r="J188">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B189">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C189">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="D189">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E189">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F189">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="G189">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H189">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I189">
-        <v>470</v>
+        <v>385</v>
       </c>
       <c r="J189">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -7082,31 +7079,31 @@
         <v>187</v>
       </c>
       <c r="B190">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="C190">
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="D190">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="E190">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="F190">
-        <v>254</v>
+        <v>13</v>
       </c>
       <c r="G190">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="H190">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="I190">
-        <v>385</v>
+        <v>158</v>
       </c>
       <c r="J190">
-        <v>206</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -7114,31 +7111,31 @@
         <v>188</v>
       </c>
       <c r="B191">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C191">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E191">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F191">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G191">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H191">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I191">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="J191">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -7146,31 +7143,31 @@
         <v>189</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C192">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D192">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E192">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G192">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J192">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -7178,127 +7175,127 @@
         <v>190</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C194">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E194">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G194">
         <v>0</v>
       </c>
       <c r="H194">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J194">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>267</v>
       </c>
       <c r="J195">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B196">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C196">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F196">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G196">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H196">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I196">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="J196">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -7306,31 +7303,31 @@
         <v>194</v>
       </c>
       <c r="B197">
-        <v>160</v>
+        <v>449</v>
       </c>
       <c r="C197">
-        <v>117</v>
+        <v>527</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E197">
-        <v>6</v>
+        <v>397</v>
       </c>
       <c r="F197">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="G197">
-        <v>15</v>
+        <v>406</v>
       </c>
       <c r="H197">
-        <v>15</v>
+        <v>330</v>
       </c>
       <c r="I197">
-        <v>342</v>
+        <v>543</v>
       </c>
       <c r="J197">
-        <v>36</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -7338,31 +7335,31 @@
         <v>195</v>
       </c>
       <c r="B198">
-        <v>449</v>
+        <v>289</v>
       </c>
       <c r="C198">
-        <v>527</v>
+        <v>388</v>
       </c>
       <c r="D198">
-        <v>6</v>
+        <v>386</v>
       </c>
       <c r="E198">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="F198">
+        <v>456</v>
+      </c>
+      <c r="G198">
         <v>420</v>
       </c>
-      <c r="G198">
-        <v>406</v>
-      </c>
       <c r="H198">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="I198">
-        <v>543</v>
+        <v>391</v>
       </c>
       <c r="J198">
-        <v>399</v>
+        <v>326</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -7370,31 +7367,31 @@
         <v>196</v>
       </c>
       <c r="B199">
-        <v>289</v>
+        <v>83</v>
       </c>
       <c r="C199">
-        <v>388</v>
+        <v>60</v>
       </c>
       <c r="D199">
-        <v>386</v>
+        <v>309</v>
       </c>
       <c r="E199">
-        <v>335</v>
+        <v>8</v>
       </c>
       <c r="F199">
-        <v>456</v>
+        <v>26</v>
       </c>
       <c r="G199">
-        <v>420</v>
+        <v>14</v>
       </c>
       <c r="H199">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I199">
-        <v>391</v>
+        <v>146</v>
       </c>
       <c r="J199">
-        <v>326</v>
+        <v>38</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -7402,31 +7399,31 @@
         <v>197</v>
       </c>
       <c r="B200">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="C200">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D200">
-        <v>309</v>
+        <v>3</v>
       </c>
       <c r="E200">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G200">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I200">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="J200">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -7434,31 +7431,31 @@
         <v>198</v>
       </c>
       <c r="B201">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C201">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D201">
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H201">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I201">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="J201">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -7466,31 +7463,31 @@
         <v>199</v>
       </c>
       <c r="B202">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C202">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
         <v>3</v>
       </c>
-      <c r="E202">
-        <v>4</v>
-      </c>
-      <c r="F202">
-        <v>5</v>
-      </c>
       <c r="G202">
+        <v>2</v>
+      </c>
+      <c r="H202">
+        <v>11</v>
+      </c>
+      <c r="I202">
+        <v>149</v>
+      </c>
+      <c r="J202">
         <v>7</v>
-      </c>
-      <c r="H202">
-        <v>9</v>
-      </c>
-      <c r="I202">
-        <v>98</v>
-      </c>
-      <c r="J202">
-        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -7498,31 +7495,31 @@
         <v>200</v>
       </c>
       <c r="B203">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C203">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F203">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G203">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H203">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I203">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="J203">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -7530,31 +7527,31 @@
         <v>201</v>
       </c>
       <c r="B204">
-        <v>77</v>
+        <v>602</v>
       </c>
       <c r="C204">
-        <v>47</v>
+        <v>1073</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>872</v>
       </c>
       <c r="E204">
-        <v>3</v>
+        <v>1019</v>
       </c>
       <c r="F204">
-        <v>4</v>
+        <v>1591</v>
       </c>
       <c r="G204">
-        <v>4</v>
+        <v>1239</v>
       </c>
       <c r="H204">
-        <v>16</v>
+        <v>771</v>
       </c>
       <c r="I204">
-        <v>134</v>
+        <v>1122</v>
       </c>
       <c r="J204">
-        <v>9</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -7562,31 +7559,31 @@
         <v>202</v>
       </c>
       <c r="B205">
-        <v>602</v>
+        <v>94</v>
       </c>
       <c r="C205">
-        <v>1073</v>
+        <v>70</v>
       </c>
       <c r="D205">
-        <v>872</v>
+        <v>17</v>
       </c>
       <c r="E205">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="F205">
-        <v>1591</v>
+        <v>35</v>
       </c>
       <c r="G205">
-        <v>1239</v>
+        <v>17</v>
       </c>
       <c r="H205">
-        <v>771</v>
+        <v>28</v>
       </c>
       <c r="I205">
-        <v>1122</v>
+        <v>165</v>
       </c>
       <c r="J205">
-        <v>1088</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -7594,191 +7591,191 @@
         <v>203</v>
       </c>
       <c r="B206">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C206">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D206">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E206">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F206">
+        <v>32</v>
+      </c>
+      <c r="G206">
         <v>35</v>
       </c>
-      <c r="G206">
-        <v>17</v>
-      </c>
       <c r="H206">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I206">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="J206">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B207">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="C207">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="D207">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="E207">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="F207">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="G207">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="H207">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="I207">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="J207">
-        <v>43</v>
+        <v>133</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B208">
-        <v>158</v>
+        <v>1303</v>
       </c>
       <c r="C208">
-        <v>206</v>
+        <v>2241</v>
       </c>
       <c r="D208">
-        <v>167</v>
+        <v>1836</v>
       </c>
       <c r="E208">
-        <v>160</v>
+        <v>2171</v>
       </c>
       <c r="F208">
-        <v>224</v>
+        <v>3350</v>
       </c>
       <c r="G208">
-        <v>232</v>
+        <v>2620</v>
       </c>
       <c r="H208">
-        <v>114</v>
+        <v>1557</v>
       </c>
       <c r="I208">
-        <v>197</v>
+        <v>2500</v>
       </c>
       <c r="J208">
-        <v>133</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B209">
-        <v>1303</v>
+        <v>405</v>
       </c>
       <c r="C209">
-        <v>2241</v>
+        <v>640</v>
       </c>
       <c r="D209">
-        <v>1836</v>
+        <v>599</v>
       </c>
       <c r="E209">
-        <v>2171</v>
+        <v>601</v>
       </c>
       <c r="F209">
-        <v>3350</v>
+        <v>935</v>
       </c>
       <c r="G209">
-        <v>2620</v>
+        <v>705</v>
       </c>
       <c r="H209">
-        <v>1557</v>
+        <v>476</v>
       </c>
       <c r="I209">
-        <v>2500</v>
+        <v>615</v>
       </c>
       <c r="J209">
-        <v>3169</v>
+        <v>643</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B210">
-        <v>405</v>
+        <v>223</v>
       </c>
       <c r="C210">
-        <v>640</v>
+        <v>375</v>
       </c>
       <c r="D210">
-        <v>599</v>
+        <v>314</v>
       </c>
       <c r="E210">
-        <v>601</v>
+        <v>253</v>
       </c>
       <c r="F210">
-        <v>935</v>
+        <v>716</v>
       </c>
       <c r="G210">
-        <v>705</v>
+        <v>430</v>
       </c>
       <c r="H210">
-        <v>476</v>
+        <v>219</v>
       </c>
       <c r="I210">
-        <v>615</v>
+        <v>387</v>
       </c>
       <c r="J210">
-        <v>643</v>
+        <v>349</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B211">
-        <v>223</v>
+        <v>386</v>
       </c>
       <c r="C211">
-        <v>375</v>
+        <v>650</v>
       </c>
       <c r="D211">
-        <v>314</v>
+        <v>603</v>
       </c>
       <c r="E211">
-        <v>253</v>
+        <v>586</v>
       </c>
       <c r="F211">
-        <v>716</v>
+        <v>1298</v>
       </c>
       <c r="G211">
-        <v>430</v>
+        <v>836</v>
       </c>
       <c r="H211">
-        <v>219</v>
+        <v>420</v>
       </c>
       <c r="I211">
-        <v>387</v>
+        <v>765</v>
       </c>
       <c r="J211">
-        <v>349</v>
+        <v>840</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -7786,31 +7783,31 @@
         <v>209</v>
       </c>
       <c r="B212">
-        <v>386</v>
+        <v>74</v>
       </c>
       <c r="C212">
-        <v>650</v>
+        <v>438</v>
       </c>
       <c r="D212">
-        <v>603</v>
+        <v>394</v>
       </c>
       <c r="E212">
-        <v>586</v>
+        <v>237</v>
       </c>
       <c r="F212">
-        <v>1298</v>
+        <v>1396</v>
       </c>
       <c r="G212">
-        <v>836</v>
+        <v>561</v>
       </c>
       <c r="H212">
-        <v>420</v>
+        <v>167</v>
       </c>
       <c r="I212">
-        <v>765</v>
+        <v>460</v>
       </c>
       <c r="J212">
-        <v>840</v>
+        <v>358</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -7818,31 +7815,31 @@
         <v>210</v>
       </c>
       <c r="B213">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C213">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="D213">
-        <v>394</v>
+        <v>477</v>
       </c>
       <c r="E213">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F213">
-        <v>1396</v>
+        <v>1421</v>
       </c>
       <c r="G213">
-        <v>561</v>
+        <v>442</v>
       </c>
       <c r="H213">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="I213">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="J213">
-        <v>358</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -7850,62 +7847,30 @@
         <v>211</v>
       </c>
       <c r="B214">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C214">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="D214">
-        <v>477</v>
+        <v>3</v>
       </c>
       <c r="E214">
-        <v>228</v>
+        <v>3</v>
       </c>
       <c r="F214">
-        <v>1421</v>
+        <v>7</v>
       </c>
       <c r="G214">
-        <v>442</v>
+        <v>8</v>
       </c>
       <c r="H214">
-        <v>259</v>
+        <v>8</v>
       </c>
       <c r="I214">
-        <v>416</v>
+        <v>237</v>
       </c>
       <c r="J214">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B215">
-        <v>73</v>
-      </c>
-      <c r="C215">
-        <v>60</v>
-      </c>
-      <c r="D215">
-        <v>3</v>
-      </c>
-      <c r="E215">
-        <v>3</v>
-      </c>
-      <c r="F215">
-        <v>7</v>
-      </c>
-      <c r="G215">
-        <v>8</v>
-      </c>
-      <c r="H215">
-        <v>8</v>
-      </c>
-      <c r="I215">
-        <v>237</v>
-      </c>
-      <c r="J215">
         <v>9</v>
       </c>
     </row>
